--- a/GestorReceitas/Janeiro/Karate.xlsx
+++ b/GestorReceitas/Janeiro/Karate.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Janeiro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566A8AF-449E-4499-9C66-57B80148D0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dança" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Karate" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Dança!$A$1:$D$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Karate!$A$1:$D$144</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,499 +30,480 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="155">
   <si>
-    <t xml:space="preserve">Nome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuinte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afonso António Cruz Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEFN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afonso Ferreira Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEFN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afonso Filipe Pereira de Oliveira Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afonso Filipe Silva Teixeira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afonso Monteiro Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afonso Oliveira Moreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afonso Silva Gonçalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álvaro Miguel Miranda da Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Beatriz Coelho Inácio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antónia Moreira da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariana Patrícia da Silva Sousa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aseda Ilídia Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz Oliveira Moreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz Sofia Machado Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benedita Maia Dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamim Alexandre Ribeiro Alves dos Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carina Maria Teixeira Fernandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolina Filipa Jesus Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christopher Lebber de Souza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clara Brás Lopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clara da Costa Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clara Sofia Maia Amorim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dailson Dinis Soares Soares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">falta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Afonso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinis Almeida Magalhães</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinis Coutinho Moreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinis Filipe Bessa Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinis Pinheiro Torres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diogo André Valadares de Sousa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domingos Mateus Ferreira da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte Coutinho Moreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte Dias Carvalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte Ferreira Pereira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte Filipe Rocha Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte Salvador Borges Gonçalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric Barbosa da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisca Carolina dos Santos Figueiredo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Cunha Gomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Ferreira da Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Manuel Lima Correia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Moreira Maia da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Rafael Pereira da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Alejandro da Torre Madrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Bogas Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Viage Martins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriela Gomes da Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glória Maia da Silva Queiroz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonçalo Ferreira Alves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonçalo José Rocha Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonçalo Moreira Pereira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guilherme Alexandre Cerqueira Afonso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guilherme Duarte Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guilherme Soares Simão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo Amaral Martins Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo David da Silva Pinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iara Mendes Castro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joana Grade Delest Silva</t>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Turma</t>
+  </si>
+  <si>
+    <t>Contribuinte</t>
+  </si>
+  <si>
+    <t>Frequenta</t>
+  </si>
+  <si>
+    <t>Afonso António Cruz Silva</t>
+  </si>
+  <si>
+    <t>PEFN1</t>
+  </si>
+  <si>
+    <t>Afonso Ferreira Silva</t>
+  </si>
+  <si>
+    <t>PEFN2</t>
+  </si>
+  <si>
+    <t>Afonso Filipe Pereira de Oliveira Santos</t>
+  </si>
+  <si>
+    <t>FN4</t>
+  </si>
+  <si>
+    <t>Afonso Filipe Silva Teixeira</t>
+  </si>
+  <si>
+    <t>FN2A</t>
+  </si>
+  <si>
+    <t>Afonso Monteiro Ferreira</t>
+  </si>
+  <si>
+    <t>Afonso Oliveira Moreira</t>
+  </si>
+  <si>
+    <t>Afonso Silva Gonçalves</t>
+  </si>
+  <si>
+    <t>FN2</t>
+  </si>
+  <si>
+    <t>Álvaro Miguel Miranda da Costa</t>
+  </si>
+  <si>
+    <t>Ana Beatriz Coelho Inácio</t>
+  </si>
+  <si>
+    <t>FN1</t>
+  </si>
+  <si>
+    <t>Antónia Moreira da Silva</t>
+  </si>
+  <si>
+    <t>FN3</t>
+  </si>
+  <si>
+    <t>Ariana Patrícia da Silva Sousa</t>
+  </si>
+  <si>
+    <t>Aseda Ilídia Ferreira</t>
+  </si>
+  <si>
+    <t>Beatriz Oliveira Moreira</t>
+  </si>
+  <si>
+    <t>Beatriz Sofia Machado Silva</t>
+  </si>
+  <si>
+    <t>Benedita Maia Dias</t>
+  </si>
+  <si>
+    <t>Benjamim Alexandre Ribeiro Alves dos Santos</t>
+  </si>
+  <si>
+    <t>Carina Maria Teixeira Fernandes</t>
+  </si>
+  <si>
+    <t>Carolina Filipa Jesus Costa</t>
+  </si>
+  <si>
+    <t>Christopher Lebber de Souza</t>
+  </si>
+  <si>
+    <t>Clara Brás Lopes</t>
+  </si>
+  <si>
+    <t>Clara da Costa Santos</t>
+  </si>
+  <si>
+    <t>Clara Sofia Maia Amorim</t>
+  </si>
+  <si>
+    <t>Dailson Dinis Soares Soares</t>
+  </si>
+  <si>
+    <t>falta</t>
+  </si>
+  <si>
+    <t>Diego Afonso</t>
+  </si>
+  <si>
+    <t>Dinis Almeida Magalhães</t>
+  </si>
+  <si>
+    <t>Dinis Coutinho Moreira</t>
+  </si>
+  <si>
+    <t>Dinis Filipe Bessa Santos</t>
+  </si>
+  <si>
+    <t>Dinis Pinheiro Torres</t>
+  </si>
+  <si>
+    <t>Diogo André Valadares de Sousa</t>
+  </si>
+  <si>
+    <t>Domingos Mateus Ferreira da Silva</t>
+  </si>
+  <si>
+    <t>Duarte Coutinho Moreira</t>
+  </si>
+  <si>
+    <t>Duarte Dias Carvalho</t>
+  </si>
+  <si>
+    <t>Duarte Ferreira Pereira</t>
+  </si>
+  <si>
+    <t>Duarte Filipe Rocha Silva</t>
+  </si>
+  <si>
+    <t>Duarte Salvador Borges Gonçalves</t>
+  </si>
+  <si>
+    <t>Eric Barbosa da Silva</t>
+  </si>
+  <si>
+    <t>Francisca Carolina dos Santos Figueiredo</t>
+  </si>
+  <si>
+    <t>Francisco Cunha Gomes</t>
+  </si>
+  <si>
+    <t>Francisco Ferreira da Costa</t>
+  </si>
+  <si>
+    <t>Francisco Manuel Lima Correia</t>
+  </si>
+  <si>
+    <t>Francisco Moreira Maia da Silva</t>
+  </si>
+  <si>
+    <t>Francisco Rafael Pereira da Silva</t>
+  </si>
+  <si>
+    <t>Gabriel Alejandro da Torre Madrid</t>
+  </si>
+  <si>
+    <t>Gabriel Bogas Silva</t>
+  </si>
+  <si>
+    <t>Gabriel Viage Martins</t>
+  </si>
+  <si>
+    <t>Gabriela Gomes da Costa</t>
+  </si>
+  <si>
+    <t>Glória Maia da Silva Queiroz</t>
+  </si>
+  <si>
+    <t>Gonçalo Ferreira Alves</t>
+  </si>
+  <si>
+    <t>Gonçalo José Rocha Oliveira</t>
+  </si>
+  <si>
+    <t>Gonçalo Moreira Pereira</t>
+  </si>
+  <si>
+    <t>Guilherme Alexandre Cerqueira Afonso</t>
+  </si>
+  <si>
+    <t>Guilherme Duarte Ferreira</t>
+  </si>
+  <si>
+    <t>Guilherme Soares Simão</t>
+  </si>
+  <si>
+    <t>Gustavo Amaral Martins Oliveira</t>
+  </si>
+  <si>
+    <t>Gustavo David da Silva Pinto</t>
+  </si>
+  <si>
+    <t>Iara Mendes Castro</t>
+  </si>
+  <si>
+    <t>Joana Grade Delest Silva</t>
   </si>
   <si>
     <t xml:space="preserve">João Guilherme Santos Ferreira </t>
   </si>
   <si>
-    <t xml:space="preserve">João Pereira Rios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Martim Silva Gonçalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Júlia Filipa Inácio Gonçalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lara Beatriz Dias Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Lauerlann Lemos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardo Moreira Costa Lima</t>
+    <t>João Pereira Rios</t>
+  </si>
+  <si>
+    <t>José Martim Silva Gonçalves</t>
+  </si>
+  <si>
+    <t>Júlia Filipa Inácio Gonçalves</t>
+  </si>
+  <si>
+    <t>Lara Beatriz Dias Oliveira</t>
+  </si>
+  <si>
+    <t>Laura Lauerlann Lemos</t>
+  </si>
+  <si>
+    <t>Leonardo Moreira Costa Lima</t>
   </si>
   <si>
     <t xml:space="preserve">Leonor Brás Lopes </t>
   </si>
   <si>
-    <t xml:space="preserve">Leonor Gradim da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonor Margarida Moreira Faria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letícia Azevedo Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letícia Daniela Pereira Teixeira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letícia Maria Sousa Almeida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lourenço da Silva Maia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lourenço Gomes Marques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lourenço Ribeiro Assunção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lourenzo Pandolpho Pimentel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Pereira José e Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Rocha Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucilia Luciana Ramirez Pelayes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luís Miguel Inácio Gonçalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mafalda Alexandra Porto Soares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mafalda Ferreira Sousa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mafalda Moreira Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mafalda Sofia Pereira Loureiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mafalda Sofia Rodrigues Fragoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel Alejandro da Torre Madrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel José Pereira Vilas Boas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margarida Sofia Rocha Xavier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Clara Gomes Marques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Fancisca Loureiro Aires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Inês Ferreira da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Inês Ferreira Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Inês Madureira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Leonor Gonçalves Jesus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Luísa da Silva Dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Maia Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Menezes Monteiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Oliveira Maia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Rafaela Mourão e Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana da Fonseca Amorim</t>
+    <t>Leonor Gradim da Silva</t>
+  </si>
+  <si>
+    <t>Leonor Margarida Moreira Faria</t>
+  </si>
+  <si>
+    <t>Letícia Azevedo Ferreira</t>
+  </si>
+  <si>
+    <t>Letícia Daniela Pereira Teixeira</t>
+  </si>
+  <si>
+    <t>Letícia Maria Sousa Almeida</t>
+  </si>
+  <si>
+    <t>Lourenço da Silva Maia</t>
+  </si>
+  <si>
+    <t>Lourenço Gomes Marques</t>
+  </si>
+  <si>
+    <t>Lourenço Ribeiro Assunção</t>
+  </si>
+  <si>
+    <t>Lourenzo Pandolpho Pimentel</t>
+  </si>
+  <si>
+    <t>Lucas Pereira José e Silva</t>
+  </si>
+  <si>
+    <t>Lucas Rocha Silva</t>
+  </si>
+  <si>
+    <t>Lucilia Luciana Ramirez Pelayes</t>
+  </si>
+  <si>
+    <t>Luís Miguel Inácio Gonçalves</t>
+  </si>
+  <si>
+    <t>Mafalda Alexandra Porto Soares</t>
+  </si>
+  <si>
+    <t>Mafalda Ferreira Sousa</t>
+  </si>
+  <si>
+    <t>Mafalda Moreira Costa</t>
+  </si>
+  <si>
+    <t>Mafalda Sofia Pereira Loureiro</t>
+  </si>
+  <si>
+    <t>Mafalda Sofia Rodrigues Fragoso</t>
+  </si>
+  <si>
+    <t>Manuel Alejandro da Torre Madrid</t>
+  </si>
+  <si>
+    <t>Manuel José Pereira Vilas Boas</t>
+  </si>
+  <si>
+    <t>Margarida Sofia Rocha Xavier</t>
+  </si>
+  <si>
+    <t>Maria Clara Gomes Marques</t>
+  </si>
+  <si>
+    <t>Maria Fancisca Loureiro Aires</t>
+  </si>
+  <si>
+    <t>Maria Inês Ferreira da Silva</t>
+  </si>
+  <si>
+    <t>Maria Inês Ferreira Silva</t>
+  </si>
+  <si>
+    <t>Maria Inês Madureira</t>
+  </si>
+  <si>
+    <t>Maria Leonor Gonçalves Jesus</t>
+  </si>
+  <si>
+    <t>Maria Luísa da Silva Dias</t>
+  </si>
+  <si>
+    <t>Maria Maia Ferreira</t>
+  </si>
+  <si>
+    <t>Maria Menezes Monteiro</t>
+  </si>
+  <si>
+    <t>Maria Oliveira Maia</t>
+  </si>
+  <si>
+    <t>Maria Rafaela Mourão e Silva</t>
+  </si>
+  <si>
+    <t>Mariana da Fonseca Amorim</t>
   </si>
   <si>
     <t xml:space="preserve">Martim de Carvalho Santos Silva </t>
   </si>
   <si>
-    <t xml:space="preserve">Martim Freitas da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martim Sá de Andrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martim Segura Ribeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martim Vieira Gomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mateus Monteiro Cunha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mateus Teixeira Campos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matilde Alexandra Cabral Duarte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matilde da Costa Lima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matilde Ferreira da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matilde Loureiro Marques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matilde Quaresma Vieira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matilde Ribeiro Maia</t>
+    <t>Martim Freitas da Silva</t>
+  </si>
+  <si>
+    <t>Martim Sá de Andrade</t>
+  </si>
+  <si>
+    <t>Martim Segura Ribeiro</t>
+  </si>
+  <si>
+    <t>Martim Vieira Gomes</t>
+  </si>
+  <si>
+    <t>Mateus Monteiro Cunha</t>
+  </si>
+  <si>
+    <t>Mateus Teixeira Campos</t>
+  </si>
+  <si>
+    <t>Matilde Alexandra Cabral Duarte</t>
+  </si>
+  <si>
+    <t>Matilde da Costa Lima</t>
+  </si>
+  <si>
+    <t>Matilde Ferreira da Silva</t>
+  </si>
+  <si>
+    <t>Matilde Loureiro Marques</t>
+  </si>
+  <si>
+    <t>Matilde Quaresma Vieira</t>
+  </si>
+  <si>
+    <t>Matilde Ribeiro Maia</t>
   </si>
   <si>
     <t xml:space="preserve">Mellisa de Sousa Maia </t>
   </si>
   <si>
-    <t xml:space="preserve">Miguel Oliveira Carvalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Núria Pinheiro Miranda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliver Nascimento Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Simão Freitas da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Sousa Carvalho</t>
+    <t>Miguel Oliveira Carvalho</t>
+  </si>
+  <si>
+    <t>Núria Pinheiro Miranda</t>
+  </si>
+  <si>
+    <t>Oliver Nascimento Silva</t>
+  </si>
+  <si>
+    <t>Pedro Simão Freitas da Silva</t>
+  </si>
+  <si>
+    <t>Pedro Sousa Carvalho</t>
   </si>
   <si>
     <t xml:space="preserve">Rafael Barbosa de Sá e Rodrigues </t>
   </si>
   <si>
-    <t xml:space="preserve">Rafael Nadom Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafaela Almeida Lopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafaela Mendes Correia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rita Batalha Correia</t>
+    <t>Rafael Nadom Ferreira</t>
+  </si>
+  <si>
+    <t>Rafaela Almeida Lopes</t>
+  </si>
+  <si>
+    <t>Rafaela Mendes Correia</t>
+  </si>
+  <si>
+    <t>Rita Batalha Correia</t>
   </si>
   <si>
     <t xml:space="preserve">Rita Maria Faria Silva </t>
   </si>
   <si>
-    <t xml:space="preserve">Rodrigo Azevedo Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Barbosa Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Filipe Viage Teixeira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Miguel Martins Costa Carvalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel Filipe da Silva Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago da Silva Maia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago Filipe da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago Filipe Rosas da Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago Martins da Silva Guedes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarah Filipa da Rocha Ferreira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simão Maia Aroso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia Luísa Pinheiro dos Santos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia Margarida da Rosa Marques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susana Beatriz Lima Simões</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiago Moreira Barros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomás Manteiro Anunciação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomás Monteiro Cunha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valentina Agustina Ramirez Pelayes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicente Pandolpho Pimentel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yara Vaz Oliveira</t>
+    <t>Rodrigo Azevedo Santos</t>
+  </si>
+  <si>
+    <t>Rodrigo Barbosa Ferreira</t>
+  </si>
+  <si>
+    <t>Rodrigo Filipe Viage Teixeira</t>
+  </si>
+  <si>
+    <t>Rodrigo Miguel Martins Costa Carvalho</t>
+  </si>
+  <si>
+    <t>Samuel Filipe da Silva Ferreira</t>
+  </si>
+  <si>
+    <t>Santiago da Silva Maia</t>
+  </si>
+  <si>
+    <t>Santiago Filipe da Silva</t>
+  </si>
+  <si>
+    <t>Santiago Filipe Rosas da Silva</t>
+  </si>
+  <si>
+    <t>Santiago Martins da Silva Guedes</t>
+  </si>
+  <si>
+    <t>Sarah Filipa da Rocha Ferreira</t>
+  </si>
+  <si>
+    <t>Simão Maia Aroso</t>
+  </si>
+  <si>
+    <t>Sofia Luísa Pinheiro dos Santos</t>
+  </si>
+  <si>
+    <t>Sofia Margarida da Rosa Marques</t>
+  </si>
+  <si>
+    <t>Susana Beatriz Lima Simões</t>
+  </si>
+  <si>
+    <t>Tiago Moreira Barros</t>
+  </si>
+  <si>
+    <t>Tomás Manteiro Anunciação</t>
+  </si>
+  <si>
+    <t>Tomás Monteiro Cunha</t>
+  </si>
+  <si>
+    <t>Valentina Agustina Ramirez Pelayes</t>
+  </si>
+  <si>
+    <t>Vicente Pandolpho Pimentel</t>
+  </si>
+  <si>
+    <t>Yara Vaz Oliveira</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -529,7 +515,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -537,89 +523,343 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.42"/>
+    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -633,277 +873,277 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>300362838</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>303530561</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>285738380</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>289953316</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>300813775</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>307498190</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>290649064</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>285029908</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>294314008</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>288824520</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>294458310</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>303197951</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>289996570</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>293154252</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>291482376</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>298828626</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>284615846</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>306436043</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>303282355</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>306150352</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>307019420</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>297621556</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -915,1541 +1155,1535 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>285685376</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>286101386</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>305801384</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>291209890</v>
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>302609628</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>292724411</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>304866814</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>288353005</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>287986489</v>
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>306021153</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>294437452</v>
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>292995962</v>
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>287455114</v>
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>290483948</v>
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="2">
         <v>303001879</v>
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="2">
         <v>287949320</v>
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="2">
         <v>287525422</v>
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="2">
         <v>286049732</v>
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="2">
         <v>289827167</v>
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="2">
         <v>298794284</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="2">
         <v>289954339</v>
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="2">
         <v>290608600</v>
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="2">
         <v>292458118</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="2">
         <v>304586153</v>
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="2">
         <v>296838098</v>
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>304289027</v>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="2">
         <v>295962968</v>
       </c>
-      <c r="D51" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="2">
         <v>294858016</v>
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="2">
         <v>306677741</v>
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="2">
         <v>300714777</v>
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="2">
         <v>295256893</v>
       </c>
-      <c r="D55" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="2">
         <v>285445626</v>
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="2">
         <v>290188881</v>
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="2">
         <v>290733480</v>
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="2">
         <v>300686439</v>
       </c>
-      <c r="D59" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="2">
         <v>294086803</v>
       </c>
-      <c r="D60" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="2">
         <v>293669155</v>
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="2">
         <v>294138170</v>
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="2">
         <v>289182573</v>
       </c>
-      <c r="D63" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="2">
         <v>324452136</v>
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="2">
         <v>288966252</v>
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="2">
         <v>306151197</v>
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="2">
         <v>295955694</v>
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="2">
         <v>292614292</v>
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="2" t="n">
+      <c r="C69" s="2">
         <v>304693057</v>
       </c>
-      <c r="D69" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="2" t="n">
+      <c r="C70" s="2">
         <v>300369077</v>
       </c>
-      <c r="D70" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="2" t="n">
+      <c r="C71" s="2">
         <v>294517022</v>
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="2" t="n">
+      <c r="C72" s="2">
         <v>284684813</v>
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="1" t="n">
+      <c r="C73" s="1">
         <v>303976047</v>
       </c>
-      <c r="D73" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C74" s="2">
         <v>306282100</v>
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C75" s="2">
         <v>319224732</v>
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C76" s="2">
         <v>294490094</v>
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="2">
         <v>305889605</v>
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C78" s="2">
         <v>325261180</v>
       </c>
-      <c r="D78" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="C79" s="2">
         <v>284925683</v>
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="C80" s="2">
         <v>290413206</v>
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="2" t="n">
+      <c r="C81" s="2">
         <v>289567882</v>
       </c>
-      <c r="D81" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="2" t="n">
+      <c r="C82" s="2">
         <v>289279429</v>
       </c>
-      <c r="D82" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C83" s="2">
         <v>318126885</v>
       </c>
-      <c r="D83" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="2" t="n">
+      <c r="C84" s="2">
         <v>290677599</v>
       </c>
-      <c r="D84" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="2" t="n">
+      <c r="C85" s="2">
         <v>298794098</v>
       </c>
-      <c r="D85" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="2" t="n">
+      <c r="C86" s="2">
         <v>288453484</v>
       </c>
-      <c r="D86" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="2" t="n">
+      <c r="C87" s="2">
         <v>294790713</v>
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="2" t="n">
+      <c r="C88" s="2">
         <v>285654349</v>
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="2" t="n">
+      <c r="C89" s="2">
         <v>290428718</v>
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="2" t="n">
+      <c r="C90" s="2">
         <v>298838125</v>
       </c>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="2" t="n">
+      <c r="C91" s="2">
         <v>290072883</v>
       </c>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="2" t="n">
+      <c r="C92" s="2">
         <v>300252730</v>
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="2" t="n">
+      <c r="C93" s="2">
         <v>297031724</v>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="2" t="n">
+      <c r="C94" s="2">
         <v>289100020</v>
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="2" t="n">
+      <c r="C95" s="2">
         <v>292656050</v>
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="2" t="n">
+      <c r="C96" s="2">
         <v>291519180</v>
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="2" t="n">
+      <c r="C97" s="2">
         <v>299528812</v>
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="2" t="n">
+      <c r="C98" s="2">
         <v>297466747</v>
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="2" t="n">
+      <c r="C99" s="2">
         <v>288929144</v>
       </c>
-      <c r="D99" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="2" t="n">
+      <c r="C100" s="2">
         <v>298986752</v>
       </c>
-      <c r="D100" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="2" t="n">
+      <c r="C101" s="2">
         <v>290456495</v>
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="2" t="n">
+      <c r="C102" s="2">
         <v>301489769</v>
       </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="1" t="n">
+      <c r="C103" s="1">
         <v>305302639</v>
       </c>
-      <c r="D103" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="2" t="n">
+      <c r="C104" s="2">
         <v>300211163</v>
       </c>
-      <c r="D104" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="2" t="n">
+      <c r="C105" s="2">
         <v>303728795</v>
       </c>
-      <c r="D105" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="2" t="n">
+      <c r="C106" s="2">
         <v>294329528</v>
       </c>
-      <c r="D106" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="2" t="n">
+      <c r="C107" s="2">
         <v>300637730</v>
       </c>
-      <c r="D107" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="2" t="n">
+      <c r="C108" s="2">
         <v>303594306</v>
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="2" t="n">
+      <c r="C109" s="2">
         <v>298838222</v>
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="2" t="n">
+      <c r="C110" s="2">
         <v>291965016</v>
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="2" t="n">
+      <c r="C111" s="2">
         <v>289953944</v>
       </c>
-      <c r="D111" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="2" t="n">
+      <c r="C112" s="2">
         <v>299066630</v>
       </c>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="2" t="n">
+      <c r="C113" s="2">
         <v>306745321</v>
       </c>
-      <c r="D113" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C114" s="2" t="n">
+      <c r="C114" s="2">
         <v>292633963</v>
       </c>
-      <c r="D114" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C115" s="2" t="n">
+      <c r="C115" s="2">
         <v>288849868</v>
       </c>
-      <c r="D115" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="2" t="n">
+      <c r="C116" s="2">
         <v>301633835</v>
       </c>
-      <c r="D116" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="2" t="n">
+      <c r="C117" s="2">
         <v>292689675</v>
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="2" t="n">
+      <c r="C118" s="2">
         <v>294209018</v>
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="2" t="n">
+      <c r="C119" s="2">
         <v>300471769</v>
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="2" t="n">
+      <c r="C120" s="2">
         <v>304326852</v>
       </c>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="2" t="n">
+      <c r="C121" s="2">
         <v>290242142</v>
       </c>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C122" s="2" t="n">
+      <c r="C122" s="2">
         <v>290434122</v>
       </c>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="2" t="n">
+      <c r="C123" s="2">
         <v>292550553</v>
       </c>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C124" s="2" t="n">
+      <c r="C124" s="2">
         <v>306482576</v>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C125" s="2" t="n">
+      <c r="C125" s="2">
         <v>284853399</v>
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C126" s="2" t="n">
+      <c r="C126" s="2">
         <v>287499812</v>
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="2" t="n">
+      <c r="C127" s="2">
         <v>286109921</v>
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C128" s="2" t="n">
+      <c r="C128" s="2">
         <v>295015160</v>
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C129" s="2" t="n">
+      <c r="C129" s="2">
         <v>291331734</v>
       </c>
-      <c r="D129" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="2" t="n">
+      <c r="C130" s="2">
         <v>286559870</v>
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="2" t="n">
+      <c r="C131" s="2">
         <v>302027238</v>
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C132" s="2" t="n">
+      <c r="C132" s="2">
         <v>289924723</v>
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C133" s="2" t="n">
+      <c r="C133" s="2">
         <v>295083212</v>
       </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C134" s="2" t="n">
+      <c r="C134" s="2">
         <v>285871544</v>
       </c>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="2" t="n">
+      <c r="C135" s="2">
         <v>306789825</v>
       </c>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="2" t="n">
+      <c r="C136" s="2">
         <v>293688036</v>
       </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C137" s="2" t="n">
+      <c r="C137" s="2">
         <v>287629660</v>
       </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C138" s="2" t="n">
+      <c r="C138" s="2">
         <v>287620778</v>
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C139" s="2" t="n">
+      <c r="C139" s="2">
         <v>291624650</v>
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="2" t="n">
+      <c r="C140" s="2">
         <v>293160295</v>
       </c>
-      <c r="D140" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="2" t="n">
+      <c r="C141" s="2">
         <v>285360124</v>
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C142" s="2" t="n">
+      <c r="C142" s="2">
         <v>325260486</v>
       </c>
-      <c r="D142" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="2" t="n">
+      <c r="C143" s="2">
         <v>319224287</v>
       </c>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="2" t="n">
+      <c r="C144" s="2">
         <v>303919655</v>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D144">
+  <autoFilter ref="A1:D144" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/GestorReceitas/Janeiro/Karate.xlsx
+++ b/GestorReceitas/Janeiro/Karate.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Janeiro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566A8AF-449E-4499-9C66-57B80148D0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Karate" sheetId="1" r:id="rId1"/>
+    <sheet name="Karate" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Karate!$A$1:$D$144</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Karate!$A$1:$D$144</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -30,480 +25,499 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="155">
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Turma</t>
-  </si>
-  <si>
-    <t>Contribuinte</t>
-  </si>
-  <si>
-    <t>Frequenta</t>
-  </si>
-  <si>
-    <t>Afonso António Cruz Silva</t>
-  </si>
-  <si>
-    <t>PEFN1</t>
-  </si>
-  <si>
-    <t>Afonso Ferreira Silva</t>
-  </si>
-  <si>
-    <t>PEFN2</t>
-  </si>
-  <si>
-    <t>Afonso Filipe Pereira de Oliveira Santos</t>
-  </si>
-  <si>
-    <t>FN4</t>
-  </si>
-  <si>
-    <t>Afonso Filipe Silva Teixeira</t>
-  </si>
-  <si>
-    <t>FN2A</t>
-  </si>
-  <si>
-    <t>Afonso Monteiro Ferreira</t>
-  </si>
-  <si>
-    <t>Afonso Oliveira Moreira</t>
-  </si>
-  <si>
-    <t>Afonso Silva Gonçalves</t>
-  </si>
-  <si>
-    <t>FN2</t>
-  </si>
-  <si>
-    <t>Álvaro Miguel Miranda da Costa</t>
-  </si>
-  <si>
-    <t>Ana Beatriz Coelho Inácio</t>
-  </si>
-  <si>
-    <t>FN1</t>
-  </si>
-  <si>
-    <t>Antónia Moreira da Silva</t>
-  </si>
-  <si>
-    <t>FN3</t>
-  </si>
-  <si>
-    <t>Ariana Patrícia da Silva Sousa</t>
-  </si>
-  <si>
-    <t>Aseda Ilídia Ferreira</t>
-  </si>
-  <si>
-    <t>Beatriz Oliveira Moreira</t>
-  </si>
-  <si>
-    <t>Beatriz Sofia Machado Silva</t>
-  </si>
-  <si>
-    <t>Benedita Maia Dias</t>
-  </si>
-  <si>
-    <t>Benjamim Alexandre Ribeiro Alves dos Santos</t>
-  </si>
-  <si>
-    <t>Carina Maria Teixeira Fernandes</t>
-  </si>
-  <si>
-    <t>Carolina Filipa Jesus Costa</t>
-  </si>
-  <si>
-    <t>Christopher Lebber de Souza</t>
-  </si>
-  <si>
-    <t>Clara Brás Lopes</t>
-  </si>
-  <si>
-    <t>Clara da Costa Santos</t>
-  </si>
-  <si>
-    <t>Clara Sofia Maia Amorim</t>
-  </si>
-  <si>
-    <t>Dailson Dinis Soares Soares</t>
-  </si>
-  <si>
-    <t>falta</t>
-  </si>
-  <si>
-    <t>Diego Afonso</t>
-  </si>
-  <si>
-    <t>Dinis Almeida Magalhães</t>
-  </si>
-  <si>
-    <t>Dinis Coutinho Moreira</t>
-  </si>
-  <si>
-    <t>Dinis Filipe Bessa Santos</t>
-  </si>
-  <si>
-    <t>Dinis Pinheiro Torres</t>
-  </si>
-  <si>
-    <t>Diogo André Valadares de Sousa</t>
-  </si>
-  <si>
-    <t>Domingos Mateus Ferreira da Silva</t>
-  </si>
-  <si>
-    <t>Duarte Coutinho Moreira</t>
-  </si>
-  <si>
-    <t>Duarte Dias Carvalho</t>
-  </si>
-  <si>
-    <t>Duarte Ferreira Pereira</t>
-  </si>
-  <si>
-    <t>Duarte Filipe Rocha Silva</t>
-  </si>
-  <si>
-    <t>Duarte Salvador Borges Gonçalves</t>
-  </si>
-  <si>
-    <t>Eric Barbosa da Silva</t>
-  </si>
-  <si>
-    <t>Francisca Carolina dos Santos Figueiredo</t>
-  </si>
-  <si>
-    <t>Francisco Cunha Gomes</t>
-  </si>
-  <si>
-    <t>Francisco Ferreira da Costa</t>
-  </si>
-  <si>
-    <t>Francisco Manuel Lima Correia</t>
-  </si>
-  <si>
-    <t>Francisco Moreira Maia da Silva</t>
-  </si>
-  <si>
-    <t>Francisco Rafael Pereira da Silva</t>
-  </si>
-  <si>
-    <t>Gabriel Alejandro da Torre Madrid</t>
-  </si>
-  <si>
-    <t>Gabriel Bogas Silva</t>
-  </si>
-  <si>
-    <t>Gabriel Viage Martins</t>
-  </si>
-  <si>
-    <t>Gabriela Gomes da Costa</t>
-  </si>
-  <si>
-    <t>Glória Maia da Silva Queiroz</t>
-  </si>
-  <si>
-    <t>Gonçalo Ferreira Alves</t>
-  </si>
-  <si>
-    <t>Gonçalo José Rocha Oliveira</t>
-  </si>
-  <si>
-    <t>Gonçalo Moreira Pereira</t>
-  </si>
-  <si>
-    <t>Guilherme Alexandre Cerqueira Afonso</t>
-  </si>
-  <si>
-    <t>Guilherme Duarte Ferreira</t>
-  </si>
-  <si>
-    <t>Guilherme Soares Simão</t>
-  </si>
-  <si>
-    <t>Gustavo Amaral Martins Oliveira</t>
-  </si>
-  <si>
-    <t>Gustavo David da Silva Pinto</t>
-  </si>
-  <si>
-    <t>Iara Mendes Castro</t>
-  </si>
-  <si>
-    <t>Joana Grade Delest Silva</t>
+    <t xml:space="preserve">Nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuinte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afonso António Cruz Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEFN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afonso Ferreira Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEFN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afonso Filipe Pereira de Oliveira Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afonso Filipe Silva Teixeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afonso Monteiro Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afonso Oliveira Moreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afonso Silva Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álvaro Miguel Miranda da Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Beatriz Coelho Inácio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antónia Moreira da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariana Patrícia da Silva Sousa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aseda Ilídia Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz Oliveira Moreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz Sofia Machado Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benedita Maia Dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamim Alexandre Ribeiro Alves dos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carina Maria Teixeira Fernandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina Filipa Jesus Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Lebber de Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Brás Lopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara da Costa Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Sofia Maia Amorim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dailson Dinis Soares Soares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Afonso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinis Almeida Magalhães</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinis Coutinho Moreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinis Filipe Bessa Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinis Pinheiro Torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diogo André Valadares de Sousa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domingos Mateus Ferreira da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte Coutinho Moreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte Dias Carvalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte Ferreira Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte Filipe Rocha Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duarte Salvador Borges Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Barbosa da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisca Carolina dos Santos Figueiredo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Cunha Gomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Ferreira da Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Manuel Lima Correia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Moreira Maia da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Rafael Pereira da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Alejandro da Torre Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Bogas Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Viage Martins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela Gomes da Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glória Maia da Silva Queiroz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonçalo Ferreira Alves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonçalo José Rocha Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonçalo Moreira Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guilherme Alexandre Cerqueira Afonso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guilherme Duarte Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guilherme Soares Simão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Amaral Martins Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo David da Silva Pinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iara Mendes Castro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joana Grade Delest Silva</t>
   </si>
   <si>
     <t xml:space="preserve">João Guilherme Santos Ferreira </t>
   </si>
   <si>
-    <t>João Pereira Rios</t>
-  </si>
-  <si>
-    <t>José Martim Silva Gonçalves</t>
-  </si>
-  <si>
-    <t>Júlia Filipa Inácio Gonçalves</t>
-  </si>
-  <si>
-    <t>Lara Beatriz Dias Oliveira</t>
-  </si>
-  <si>
-    <t>Laura Lauerlann Lemos</t>
-  </si>
-  <si>
-    <t>Leonardo Moreira Costa Lima</t>
+    <t xml:space="preserve">João Pereira Rios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Martim Silva Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Júlia Filipa Inácio Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lara Beatriz Dias Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Lauerlann Lemos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Moreira Costa Lima</t>
   </si>
   <si>
     <t xml:space="preserve">Leonor Brás Lopes </t>
   </si>
   <si>
-    <t>Leonor Gradim da Silva</t>
-  </si>
-  <si>
-    <t>Leonor Margarida Moreira Faria</t>
-  </si>
-  <si>
-    <t>Letícia Azevedo Ferreira</t>
-  </si>
-  <si>
-    <t>Letícia Daniela Pereira Teixeira</t>
-  </si>
-  <si>
-    <t>Letícia Maria Sousa Almeida</t>
-  </si>
-  <si>
-    <t>Lourenço da Silva Maia</t>
-  </si>
-  <si>
-    <t>Lourenço Gomes Marques</t>
-  </si>
-  <si>
-    <t>Lourenço Ribeiro Assunção</t>
-  </si>
-  <si>
-    <t>Lourenzo Pandolpho Pimentel</t>
-  </si>
-  <si>
-    <t>Lucas Pereira José e Silva</t>
-  </si>
-  <si>
-    <t>Lucas Rocha Silva</t>
-  </si>
-  <si>
-    <t>Lucilia Luciana Ramirez Pelayes</t>
-  </si>
-  <si>
-    <t>Luís Miguel Inácio Gonçalves</t>
-  </si>
-  <si>
-    <t>Mafalda Alexandra Porto Soares</t>
-  </si>
-  <si>
-    <t>Mafalda Ferreira Sousa</t>
-  </si>
-  <si>
-    <t>Mafalda Moreira Costa</t>
-  </si>
-  <si>
-    <t>Mafalda Sofia Pereira Loureiro</t>
-  </si>
-  <si>
-    <t>Mafalda Sofia Rodrigues Fragoso</t>
-  </si>
-  <si>
-    <t>Manuel Alejandro da Torre Madrid</t>
-  </si>
-  <si>
-    <t>Manuel José Pereira Vilas Boas</t>
-  </si>
-  <si>
-    <t>Margarida Sofia Rocha Xavier</t>
-  </si>
-  <si>
-    <t>Maria Clara Gomes Marques</t>
-  </si>
-  <si>
-    <t>Maria Fancisca Loureiro Aires</t>
-  </si>
-  <si>
-    <t>Maria Inês Ferreira da Silva</t>
-  </si>
-  <si>
-    <t>Maria Inês Ferreira Silva</t>
-  </si>
-  <si>
-    <t>Maria Inês Madureira</t>
-  </si>
-  <si>
-    <t>Maria Leonor Gonçalves Jesus</t>
-  </si>
-  <si>
-    <t>Maria Luísa da Silva Dias</t>
-  </si>
-  <si>
-    <t>Maria Maia Ferreira</t>
-  </si>
-  <si>
-    <t>Maria Menezes Monteiro</t>
-  </si>
-  <si>
-    <t>Maria Oliveira Maia</t>
-  </si>
-  <si>
-    <t>Maria Rafaela Mourão e Silva</t>
-  </si>
-  <si>
-    <t>Mariana da Fonseca Amorim</t>
+    <t xml:space="preserve">Leonor Gradim da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonor Margarida Moreira Faria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letícia Azevedo Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letícia Daniela Pereira Teixeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letícia Maria Sousa Almeida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lourenço da Silva Maia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lourenço Gomes Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lourenço Ribeiro Assunção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lourenzo Pandolpho Pimentel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Pereira José e Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Rocha Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucilia Luciana Ramirez Pelayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luís Miguel Inácio Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Alexandra Porto Soares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Ferreira Sousa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Moreira Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Sofia Pereira Loureiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Sofia Rodrigues Fragoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Alejandro da Torre Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel José Pereira Vilas Boas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margarida Sofia Rocha Xavier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Clara Gomes Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Fancisca Loureiro Aires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Inês Ferreira da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Inês Ferreira Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Inês Madureira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Leonor Gonçalves Jesus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Luísa da Silva Dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Maia Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Menezes Monteiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Oliveira Maia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Rafaela Mourão e Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana da Fonseca Amorim</t>
   </si>
   <si>
     <t xml:space="preserve">Martim de Carvalho Santos Silva </t>
   </si>
   <si>
-    <t>Martim Freitas da Silva</t>
-  </si>
-  <si>
-    <t>Martim Sá de Andrade</t>
-  </si>
-  <si>
-    <t>Martim Segura Ribeiro</t>
-  </si>
-  <si>
-    <t>Martim Vieira Gomes</t>
-  </si>
-  <si>
-    <t>Mateus Monteiro Cunha</t>
-  </si>
-  <si>
-    <t>Mateus Teixeira Campos</t>
-  </si>
-  <si>
-    <t>Matilde Alexandra Cabral Duarte</t>
-  </si>
-  <si>
-    <t>Matilde da Costa Lima</t>
-  </si>
-  <si>
-    <t>Matilde Ferreira da Silva</t>
-  </si>
-  <si>
-    <t>Matilde Loureiro Marques</t>
-  </si>
-  <si>
-    <t>Matilde Quaresma Vieira</t>
-  </si>
-  <si>
-    <t>Matilde Ribeiro Maia</t>
+    <t xml:space="preserve">Martim Freitas da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martim Sá de Andrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martim Segura Ribeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martim Vieira Gomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mateus Monteiro Cunha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mateus Teixeira Campos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matilde Alexandra Cabral Duarte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matilde da Costa Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matilde Ferreira da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matilde Loureiro Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matilde Quaresma Vieira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matilde Ribeiro Maia</t>
   </si>
   <si>
     <t xml:space="preserve">Mellisa de Sousa Maia </t>
   </si>
   <si>
-    <t>Miguel Oliveira Carvalho</t>
-  </si>
-  <si>
-    <t>Núria Pinheiro Miranda</t>
-  </si>
-  <si>
-    <t>Oliver Nascimento Silva</t>
-  </si>
-  <si>
-    <t>Pedro Simão Freitas da Silva</t>
-  </si>
-  <si>
-    <t>Pedro Sousa Carvalho</t>
+    <t xml:space="preserve">Miguel Oliveira Carvalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Núria Pinheiro Miranda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver Nascimento Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Simão Freitas da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Sousa Carvalho</t>
   </si>
   <si>
     <t xml:space="preserve">Rafael Barbosa de Sá e Rodrigues </t>
   </si>
   <si>
-    <t>Rafael Nadom Ferreira</t>
-  </si>
-  <si>
-    <t>Rafaela Almeida Lopes</t>
-  </si>
-  <si>
-    <t>Rafaela Mendes Correia</t>
-  </si>
-  <si>
-    <t>Rita Batalha Correia</t>
+    <t xml:space="preserve">Rafael Nadom Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafaela Almeida Lopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafaela Mendes Correia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rita Batalha Correia</t>
   </si>
   <si>
     <t xml:space="preserve">Rita Maria Faria Silva </t>
   </si>
   <si>
-    <t>Rodrigo Azevedo Santos</t>
-  </si>
-  <si>
-    <t>Rodrigo Barbosa Ferreira</t>
-  </si>
-  <si>
-    <t>Rodrigo Filipe Viage Teixeira</t>
-  </si>
-  <si>
-    <t>Rodrigo Miguel Martins Costa Carvalho</t>
-  </si>
-  <si>
-    <t>Samuel Filipe da Silva Ferreira</t>
-  </si>
-  <si>
-    <t>Santiago da Silva Maia</t>
-  </si>
-  <si>
-    <t>Santiago Filipe da Silva</t>
-  </si>
-  <si>
-    <t>Santiago Filipe Rosas da Silva</t>
-  </si>
-  <si>
-    <t>Santiago Martins da Silva Guedes</t>
-  </si>
-  <si>
-    <t>Sarah Filipa da Rocha Ferreira</t>
-  </si>
-  <si>
-    <t>Simão Maia Aroso</t>
-  </si>
-  <si>
-    <t>Sofia Luísa Pinheiro dos Santos</t>
-  </si>
-  <si>
-    <t>Sofia Margarida da Rosa Marques</t>
-  </si>
-  <si>
-    <t>Susana Beatriz Lima Simões</t>
-  </si>
-  <si>
-    <t>Tiago Moreira Barros</t>
-  </si>
-  <si>
-    <t>Tomás Manteiro Anunciação</t>
-  </si>
-  <si>
-    <t>Tomás Monteiro Cunha</t>
-  </si>
-  <si>
-    <t>Valentina Agustina Ramirez Pelayes</t>
-  </si>
-  <si>
-    <t>Vicente Pandolpho Pimentel</t>
-  </si>
-  <si>
-    <t>Yara Vaz Oliveira</t>
+    <t xml:space="preserve">Rodrigo Azevedo Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Barbosa Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Filipe Viage Teixeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Miguel Martins Costa Carvalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Filipe da Silva Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago da Silva Maia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago Filipe da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago Filipe Rosas da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago Martins da Silva Guedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah Filipa da Rocha Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simão Maia Aroso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia Luísa Pinheiro dos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia Margarida da Rosa Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susana Beatriz Lima Simões</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiago Moreira Barros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomás Manteiro Anunciação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomás Monteiro Cunha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentina Agustina Ramirez Pelayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicente Pandolpho Pimentel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yara Vaz Oliveira</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -515,7 +529,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -523,343 +537,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -873,277 +633,279 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>300362838</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="n">
         <v>303530561</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="n">
         <v>285738380</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="n">
         <v>289953316</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="2" t="n">
         <v>300813775</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="2" t="n">
         <v>307498190</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="2" t="n">
         <v>290649064</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="2" t="n">
         <v>285029908</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="2" t="n">
         <v>294314008</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="2" t="n">
         <v>288824520</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="n">
         <v>294458310</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="n">
         <v>303197951</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="2" t="n">
         <v>289996570</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="2" t="n">
         <v>293154252</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="2" t="n">
         <v>291482376</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="2" t="n">
         <v>298828626</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="2" t="n">
         <v>284615846</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="2" t="n">
         <v>306436043</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="2" t="n">
         <v>303282355</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="2" t="n">
         <v>306150352</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="2" t="n">
         <v>307019420</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="2" t="n">
         <v>297621556</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -1155,1535 +917,1545 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="2" t="n">
         <v>285685376</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="2" t="n">
         <v>286101386</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="2" t="n">
         <v>305801384</v>
       </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="2" t="n">
         <v>291209890</v>
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="2" t="n">
         <v>302609628</v>
       </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="2" t="n">
         <v>292724411</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="2" t="n">
         <v>304866814</v>
       </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="2" t="n">
         <v>288353005</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="2" t="n">
         <v>287986489</v>
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="1" t="n">
         <v>306021153</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="2" t="n">
         <v>294437452</v>
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="2" t="n">
         <v>292995962</v>
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="2" t="n">
         <v>287455114</v>
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="2" t="n">
         <v>290483948</v>
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="2" t="n">
         <v>303001879</v>
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="2" t="n">
         <v>287949320</v>
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="2" t="n">
         <v>287525422</v>
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="2" t="n">
         <v>286049732</v>
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="2" t="n">
         <v>289827167</v>
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="2" t="n">
         <v>298794284</v>
       </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="2" t="n">
         <v>289954339</v>
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="2" t="n">
         <v>290608600</v>
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="2" t="n">
         <v>292458118</v>
       </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="2" t="n">
         <v>304586153</v>
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="2" t="n">
         <v>296838098</v>
       </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="2" t="n">
         <v>304289027</v>
       </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="2" t="n">
         <v>295962968</v>
       </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="2" t="n">
         <v>294858016</v>
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="2" t="n">
         <v>306677741</v>
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="2" t="n">
         <v>300714777</v>
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="2" t="n">
         <v>295256893</v>
       </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="2" t="n">
         <v>285445626</v>
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="2" t="n">
         <v>290188881</v>
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="2" t="n">
         <v>290733480</v>
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="2" t="n">
         <v>300686439</v>
       </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="2" t="n">
         <v>294086803</v>
       </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="2" t="n">
         <v>293669155</v>
       </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="2" t="n">
         <v>294138170</v>
       </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="2" t="n">
         <v>289182573</v>
       </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="2" t="n">
         <v>324452136</v>
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="2" t="n">
         <v>288966252</v>
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="2" t="n">
         <v>306151197</v>
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="2" t="n">
         <v>295955694</v>
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="2" t="n">
         <v>292614292</v>
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="2" t="n">
         <v>304693057</v>
       </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="2" t="n">
         <v>300369077</v>
       </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="2" t="n">
         <v>294517022</v>
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="2" t="n">
         <v>284684813</v>
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="1" t="n">
         <v>303976047</v>
       </c>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="2" t="n">
         <v>306282100</v>
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="2" t="n">
         <v>319224732</v>
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="2" t="n">
         <v>294490094</v>
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="2" t="n">
         <v>305889605</v>
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="2" t="n">
         <v>325261180</v>
       </c>
-      <c r="D78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="2" t="n">
         <v>284925683</v>
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="2" t="n">
         <v>290413206</v>
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="2" t="n">
         <v>289567882</v>
       </c>
-      <c r="D81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="2" t="n">
         <v>289279429</v>
       </c>
-      <c r="D82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="2" t="n">
         <v>318126885</v>
       </c>
-      <c r="D83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="2" t="n">
         <v>290677599</v>
       </c>
-      <c r="D84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="2" t="n">
         <v>298794098</v>
       </c>
-      <c r="D85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="2" t="n">
         <v>288453484</v>
       </c>
-      <c r="D86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="2" t="n">
         <v>294790713</v>
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="2" t="n">
         <v>285654349</v>
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="2" t="n">
         <v>290428718</v>
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="2" t="n">
         <v>298838125</v>
       </c>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="2" t="n">
         <v>290072883</v>
       </c>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="2" t="n">
         <v>300252730</v>
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="2" t="n">
         <v>297031724</v>
       </c>
-      <c r="D93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="2" t="n">
         <v>289100020</v>
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="2" t="n">
         <v>292656050</v>
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="2" t="n">
         <v>291519180</v>
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="2" t="n">
         <v>299528812</v>
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="2" t="n">
         <v>297466747</v>
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="2" t="n">
         <v>288929144</v>
       </c>
-      <c r="D99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="2" t="n">
         <v>298986752</v>
       </c>
-      <c r="D100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="2" t="n">
         <v>290456495</v>
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="2" t="n">
         <v>301489769</v>
       </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="1" t="n">
         <v>305302639</v>
       </c>
-      <c r="D103" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="2" t="n">
         <v>300211163</v>
       </c>
-      <c r="D104" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="2" t="n">
         <v>303728795</v>
       </c>
-      <c r="D105" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="2" t="n">
         <v>294329528</v>
       </c>
-      <c r="D106" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="2" t="n">
         <v>300637730</v>
       </c>
-      <c r="D107" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D107" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="2" t="n">
         <v>303594306</v>
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="2" t="n">
         <v>298838222</v>
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="2" t="n">
         <v>291965016</v>
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="2" t="n">
         <v>289953944</v>
       </c>
-      <c r="D111" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D111" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="2" t="n">
         <v>299066630</v>
       </c>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="2" t="n">
         <v>306745321</v>
       </c>
-      <c r="D113" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="2" t="n">
         <v>292633963</v>
       </c>
-      <c r="D114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="2" t="n">
         <v>288849868</v>
       </c>
-      <c r="D115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="2" t="n">
         <v>301633835</v>
       </c>
-      <c r="D116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="2" t="n">
         <v>292689675</v>
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="2" t="n">
         <v>294209018</v>
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="2" t="n">
         <v>300471769</v>
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="2" t="n">
         <v>304326852</v>
       </c>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="2" t="n">
         <v>290242142</v>
       </c>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="2" t="n">
         <v>290434122</v>
       </c>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="2" t="n">
         <v>292550553</v>
       </c>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="2" t="n">
         <v>306482576</v>
       </c>
-      <c r="D124" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D124" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="2" t="n">
         <v>284853399</v>
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="2" t="n">
         <v>287499812</v>
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="2" t="n">
         <v>286109921</v>
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="2" t="n">
         <v>295015160</v>
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="2" t="n">
         <v>291331734</v>
       </c>
-      <c r="D129" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D129" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="2" t="n">
         <v>286559870</v>
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="2" t="n">
         <v>302027238</v>
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="2" t="n">
         <v>289924723</v>
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="2" t="n">
         <v>295083212</v>
       </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="2" t="n">
         <v>285871544</v>
       </c>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="2" t="n">
         <v>306789825</v>
       </c>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="2" t="n">
         <v>293688036</v>
       </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="2" t="n">
         <v>287629660</v>
       </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="2" t="n">
         <v>287620778</v>
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="2" t="n">
         <v>291624650</v>
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="2" t="n">
         <v>293160295</v>
       </c>
-      <c r="D140" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D140" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="2" t="n">
         <v>285360124</v>
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="2" t="n">
         <v>325260486</v>
       </c>
-      <c r="D142" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D142" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="2" t="n">
         <v>319224287</v>
       </c>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="2" t="n">
         <v>303919655</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="2" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D144" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:D144">
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>